--- a/MyTest/test_input.xlsx
+++ b/MyTest/test_input.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14140" windowHeight="4530" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14140" windowHeight="4530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="driving_behaviors" sheetId="1" r:id="rId1"/>
-    <sheet name="vehicle_compositions" sheetId="2" r:id="rId2"/>
-    <sheet name="links" sheetId="6" r:id="rId3"/>
-    <sheet name="vehicle_routing_decisions" sheetId="4" r:id="rId4"/>
-    <sheet name="vehicle_routes" sheetId="5" r:id="rId5"/>
+    <sheet name="vehicle_routes" sheetId="7" r:id="rId2"/>
+    <sheet name="vehicle_compositions" sheetId="2" r:id="rId3"/>
+    <sheet name="links" sheetId="6" r:id="rId4"/>
+    <sheet name="vehicle_routing_decisions" sheetId="4" r:id="rId5"/>
     <sheet name="vehicle_inputs" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,35 +94,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Route1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Route2</t>
-  </si>
-  <si>
-    <t>Route3</t>
-  </si>
-  <si>
-    <t>Route5</t>
-  </si>
-  <si>
-    <t>Route6</t>
-  </si>
-  <si>
-    <t>Route7</t>
-  </si>
-  <si>
-    <t>Route9</t>
-  </si>
-  <si>
-    <t>Route10</t>
-  </si>
-  <si>
-    <t>Route11</t>
-  </si>
-  <si>
-    <t>VehRoutDec</t>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W99cc0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W99cc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W99cc6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W99cc2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W99cc3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W99cc4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W99cc5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W99cc7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W99cc8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W99cc9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -130,177 +142,177 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>自定义行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkBehavType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkBehav1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkBehav2</t>
+  </si>
+  <si>
+    <t>LinkBehav3</t>
+  </si>
+  <si>
+    <t>LinkBehav4</t>
+  </si>
+  <si>
+    <t>LinkBehav5</t>
+  </si>
+  <si>
+    <t>LinkBehav6</t>
+  </si>
+  <si>
+    <t>LinkBehav7</t>
+  </si>
+  <si>
+    <t>LinkBehav8</t>
+  </si>
+  <si>
+    <t>LinkBehav9</t>
+  </si>
+  <si>
+    <t>LinkBehav10</t>
+  </si>
+  <si>
+    <t>LinkBehav11</t>
+  </si>
+  <si>
+    <t>LinkBehav12</t>
+  </si>
+  <si>
+    <t>LinkBehav13</t>
+  </si>
+  <si>
+    <t>LinkBehav14</t>
+  </si>
+  <si>
+    <t>LinkBehav15</t>
+  </si>
+  <si>
+    <t>LinkBehav16</t>
+  </si>
+  <si>
+    <t>LinkBehav17</t>
+  </si>
+  <si>
+    <t>LinkBehav18</t>
+  </si>
+  <si>
+    <t>LinkBehav19</t>
+  </si>
+  <si>
+    <t>LinkBehav20</t>
+  </si>
+  <si>
+    <t>LinkBehav21</t>
+  </si>
+  <si>
+    <t>LinkBehav22</t>
+  </si>
+  <si>
+    <t>LinkBehav23</t>
+  </si>
+  <si>
+    <t>LinkBehav24</t>
+  </si>
+  <si>
+    <t>LinkBehav25</t>
+  </si>
+  <si>
+    <t>LinkBehav26</t>
+  </si>
+  <si>
+    <t>LinkBehav27</t>
+  </si>
+  <si>
+    <t>LinkBehav28</t>
+  </si>
+  <si>
+    <t>DesPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>RelFlow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Route4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Route8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Route12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DestLink</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DestPos</t>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VehRouteDec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Route3-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Route1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Route1-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Route1-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Route3-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Route3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Route5-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Route5-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Route5-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Route7-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Route7-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Route7-6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W99cc0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W99cc1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W99cc6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W99cc2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W99cc3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W99cc4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W99cc5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W99cc7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W99cc8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W99cc9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义行为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LinkBehavType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LinkBehav1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LinkBehav2</t>
-  </si>
-  <si>
-    <t>LinkBehav3</t>
-  </si>
-  <si>
-    <t>LinkBehav4</t>
-  </si>
-  <si>
-    <t>LinkBehav5</t>
-  </si>
-  <si>
-    <t>LinkBehav6</t>
-  </si>
-  <si>
-    <t>LinkBehav7</t>
-  </si>
-  <si>
-    <t>LinkBehav8</t>
-  </si>
-  <si>
-    <t>LinkBehav9</t>
-  </si>
-  <si>
-    <t>LinkBehav10</t>
-  </si>
-  <si>
-    <t>LinkBehav11</t>
-  </si>
-  <si>
-    <t>LinkBehav12</t>
-  </si>
-  <si>
-    <t>LinkBehav13</t>
-  </si>
-  <si>
-    <t>LinkBehav14</t>
-  </si>
-  <si>
-    <t>LinkBehav15</t>
-  </si>
-  <si>
-    <t>LinkBehav16</t>
-  </si>
-  <si>
-    <t>LinkBehav17</t>
-  </si>
-  <si>
-    <t>LinkBehav18</t>
-  </si>
-  <si>
-    <t>LinkBehav19</t>
-  </si>
-  <si>
-    <t>LinkBehav20</t>
-  </si>
-  <si>
-    <t>LinkBehav21</t>
-  </si>
-  <si>
-    <t>LinkBehav22</t>
-  </si>
-  <si>
-    <t>LinkBehav23</t>
-  </si>
-  <si>
-    <t>LinkBehav24</t>
-  </si>
-  <si>
-    <t>LinkBehav25</t>
-  </si>
-  <si>
-    <t>LinkBehav26</t>
-  </si>
-  <si>
-    <t>LinkBehav27</t>
-  </si>
-  <si>
-    <t>LinkBehav28</t>
   </si>
 </sst>
 </file>
@@ -686,40 +698,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -727,7 +739,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>1.5</v>
@@ -801,10 +813,300 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>116.436498</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>108.335061</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>116.136084</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>106.81096700000001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>115.581718</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>68.518979000000002</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>108.43939</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>61.874819000000002</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>122.06494600000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>54.687601999999998</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>108.752951</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2">
+        <v>97.587329999999994</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -876,11 +1178,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -893,18 +1195,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -915,7 +1217,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -926,7 +1228,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -937,7 +1239,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -948,7 +1250,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
@@ -959,7 +1261,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
@@ -970,7 +1272,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
@@ -981,7 +1283,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
@@ -992,7 +1294,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
@@ -1003,7 +1305,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
@@ -1014,7 +1316,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2">
         <v>11</v>
@@ -1025,7 +1327,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2">
         <v>12</v>
@@ -1036,7 +1338,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2">
         <v>13</v>
@@ -1047,7 +1349,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2">
         <v>14</v>
@@ -1058,7 +1360,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2">
         <v>15</v>
@@ -1069,7 +1371,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2">
         <v>16</v>
@@ -1080,7 +1382,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2">
         <v>10000</v>
@@ -1091,7 +1393,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2">
         <v>10001</v>
@@ -1102,7 +1404,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B20" s="2">
         <v>10002</v>
@@ -1113,7 +1415,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B21" s="2">
         <v>10003</v>
@@ -1124,7 +1426,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2">
         <v>10004</v>
@@ -1135,7 +1437,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B23" s="2">
         <v>10005</v>
@@ -1146,7 +1448,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B24" s="2">
         <v>10006</v>
@@ -1157,7 +1459,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2">
         <v>10007</v>
@@ -1168,7 +1470,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B26" s="2">
         <v>10008</v>
@@ -1179,7 +1481,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2">
         <v>10009</v>
@@ -1190,7 +1492,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2">
         <v>10010</v>
@@ -1201,7 +1503,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2">
         <v>10011</v>
@@ -1247,12 +1549,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1365,327 +1667,6 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2">
-        <v>116.436498</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2">
-        <v>108.335061</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2">
-        <v>116.136084</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2">
-        <v>106.81096700000001</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2">
-        <v>115.581718</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>68.518979000000002</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2">
-        <v>108.43939</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>61.874819000000002</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2">
-        <v>122.06494600000001</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>54.687601999999998</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2">
-        <v>108.752951</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="2">
-        <v>6</v>
-      </c>
-      <c r="E13" s="2">
-        <v>97.587329999999994</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
